--- a/2025-02-06/Mixed Martial Arts_2025-02-06.xlsx
+++ b/2025-02-06/Mixed Martial Arts_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126916947195?_skw=PSA+10&amp;hash=item1d8cd6ecfb:g:RtEAAOSwxQZnnx~6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2Bb%2Fu0ftCdlVC9E0i%2BNVYPM0u%2B8zbNQsmU4sLrfRkHu3UymoIMYwtpAX5wkBpiSwWZqVOgtGPoZZUuRgdZMH%2FKNFoTdVwcZ0%2Bx7Mi8RwLZO2CsaRp7JBIbeeddM%2FRvSGz%2FXDSZIKHvKhwYihExUpZ68xN0midiAxA%2BeTGq48fZd2KHgVKpHEmPIyz%2BH0u4eFvXjSdwFqFtFEBAS8VfNbZh473bULDmcepsHN%2BdW2JCdA%3D%3D%7Ctkp%3ABk9SR8jf0YucZQ</t>
+          <t>https://www.ebay.com/itm/126916947195?_skw=PSA+10&amp;hash=item1d8cd6ecfb:g:RtEAAOSwxQZnnx~6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2Bb%2Fu0ftCdlVC9E0i%2BNVYPM0u%2B8zbNQsmU4sLrfRkHu%2BlfL4MdWxId6HeiVh7C1pPNng9ArkHFWqlUlmOdcU%2BaEeW6%2FcLxqV9j5AGpGUDFeJ3JlHGXjK6ab7WoX54DmXnNlueg7FSroN9cZ4obXkALtZd5u%2BCTXA26T%2B9uoGiU243nOWkpCZ8ISbuK53qwsqLHB8qwMcsy%2B7KIzI6eIXKNGZvvOyB9ozKYaQIYkwuZMQ%3D%3D%7Ctkp%3ABk9SR7TT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/325786747801?_skw=PSA+10&amp;epid=23058184320&amp;hash=item4bda674399:g:qlsAAOSwpTBk59on&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKneGzqa3WKf3L%2BDYW5aXj09itdxHnhZryKX1Fysk6vMiLlRg36SfXK66M2pwiYyonA3yrhCTtmGyCjLrEYbwzF9rfUwGawBfACxH6DQnMgkfPJZw%2BuP4TGRP37ZSlQ%2FqnzbpijrmgKKDX8fUb9csFwdFeSwH0PtrpKyVpbQ%2BGQkzFDOFAbFaw4NWpZkPzGXF2ZMGomXM6hCC4ma8qNPDWxUdGKW5xTCMiIZuAsFGrkFRhoeKBgzfUPOYqDSciLDYob0Cwhr0fSzmknAt2%2BIXLLd%7Ctkp%3ABk9SR8rf0YucZQ</t>
+          <t>https://www.ebay.com/itm/325786747801?_skw=PSA+10&amp;epid=23058184320&amp;hash=item4bda674399:g:qlsAAOSwpTBk59on&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl%2B%2BGux7PxwYMkNcRTRbqaJPdqgPXHjsdhM310XMvh4Nqq5%2FJMemaDoGmtSuBLzrunFREbJs1YMz8AXed4fZyC9l33L4zySXp1rh2VTJdgguYAPoeV%2BAvDh1tooCI6BoWiT0CyxRluyCY6ZtUjVZb5o8qHRFfkxJuheglCN5JCnAYzpr3qr0FratWobEo7y2vwQ%2FAXgJEfGBPtFi8wwxyvQ5LTgxgjGCI%2BYCIrldCFRAw%3D%3D%7Ctkp%3ABk9SR7TT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Panini Select UFC</t>
+          <t>Select</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256800005472?_skw=PSA+10&amp;epid=21056076218&amp;hash=item3bca791d60:g:TisAAOSwhrBnnFxg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKllOAnR7y%2ByTTbPscQrNpbO58v1cskFMT7vITOnv9NP4elay0YKrz0HrHBOGNNE0ts1FgL5xhM1XBFFpErs2NRCxH0ff6qKW0nmHwBKPT2YAyEI9KJC55GSk8cTcoFjlZAakm1g4d4%2Bsz%2BEiaY0Yz9%2FWF3LOX4XamKTnRHtJTyN1a%2FzuKOvjVDm5SFRyb0jO2KdyPzLsqeLqmV%2FWTe%2FIztOk8%2FqfcFVT92WvgqA3dpJHw%3D%3D%7Ctkp%3ABk9SR8rf0YucZQ</t>
+          <t>https://www.ebay.com/itm/256800005472?_skw=PSA+10&amp;epid=21056076218&amp;hash=item3bca791d60:g:TisAAOSwhrBnnFxg&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKllOAnR7y%2ByTTbPscQrNpbO58v1cskFMT7vITOnv9NP4SDVYcjstJdakw4fVTp9PbscKSRyi%2FA%2FMktVzA%2FWbk2YE3fmF1eqWN54%2FYlbcY%2FSKkfbKA9xaK%2FsMdG%2BPVs88VcQ0Iv3JFmzVGSbmHHeyAKgdRTakrmMSExIT2JkJZhlrfYJE0b4EUMLMucQbwrCUbIe5UrDvkUgWMGnoRRkLlVTX70nKKbP0E1%2BS%2Bn9IJPPmQ%3D%3D%7Ctkp%3ABk9SR7TT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,17 +615,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Green Prizm</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shogun Rua</t>
+          <t>Conor McGregor</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$799.00</t>
+          <t>$700.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -635,39 +635,39 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156662332382?_skw=PSA+10&amp;hash=item2479cd7bde:g:8JYAAOSw~~hnmsh1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlMKXLhu3yK3y6zE15qTFPhX8R9aU8%2FvRTdo9R7L1HUEabd0AUXp%2FrR5zX0YH3g8utwFqZq8iL%2F4JxJ4r%2Fz%2B1O5as7KNQxssvvctndVzOmio71g8gI%2BEsXG4vRKrL5b9XzAMaUOfGizeM%2BAwscehBjmGY8K9NQLZLQ6Z%2Fk02ZbhNYWZq2Uvs9wpyB8W7UfwpI5JQCgo8voeTJcMVlMsO3I7%2FW1klvAPQ38goqKzkMicgg%3D%3D%7Ctkp%3ABk9SR8rf0YucZQ</t>
+          <t>https://www.ebay.com/itm/356523082801?_skw=PSA+10&amp;epid=24056067027&amp;hash=item53026e8431:g:jMoAAOSwRHJnnXfY&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYDpjeL8EQWlV50mIWjtGRYqXAIeT%2BFb8ZQO43Yz8lY00ax4%2FjxkSVvyAy9Fq26RYXKTsOWIHkNrViZ8to%2B7NuVxLSNiBkYjFOhTXGY5c4iVw5wJj1zx2ZskoE6fWI2vqM%2BG17QtV8DnJYb0YzR54%2B5RQ9DYeq0bHk0Pjsbz9Zw4g7r%2Fc3KPnw0WcWRsf2iDqoh0gIYBgRNlU1f0sBiB%2FRkD1HA5kPjhEZFxlRkfHyW848pwZsLv8FHUwx7KmdGp4xrHtHgIiljxqtatiuqFGi%7Ctkp%3ABk9SR7TT1bGcZQ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Mixed Martial Arts (MMA)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Panini Select</t>
+          <t>Select</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Silver Prizm</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Shogun Rua</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$174.10</t>
+          <t>$799.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396156610950?_skw=PSA+10&amp;epid=19056582784&amp;hash=item5c3cc62986:g:huMAAOSwjflnmFFK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcBUVIF0u%2BsE7aby%2BajM3vzREMhIq4GfltKquhSGElnkwlzxjQxwj%2BV7jviaJwv7r7wyMc%2FbDQEa2KQjInsgq46d8yE6%2B8E0T3GfsG7pS1xQJeNpo8G6%2BEX9Dao8JWQ1c9HHj4ZT%2BBI7TRKpVuf0YccVI6P%2BxxtXL60JzgMOYi6cnATxdZQLr4Bqe0RsGIlmO7R06lGlHBMtS6P3Q4uWfxrWNHWEgbEx1BXjTRRXsQYg%3D%3D%7Ctkp%3ABk9SR8rf0YucZQ</t>
+          <t>https://www.ebay.com/itm/156662332382?_skw=PSA+10&amp;hash=item2479cd7bde:g:8JYAAOSw~~hnmsh1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlMKXLhu3yK3y6zE15qTFPhX8R9aU8%2FvRTdo9R7L1HUEWA%2BBB6LmJwb5zybL6MPNdVtgsa3G8q3PQwdiOonFI6H2R82YDjlmbE9lBgS5zZY6sAEbn%2B%2FRZoFu%2F3iwKDQdV7jSvYbOsxcjKRnGmK0No1IGNYdRMz8xtTKd9%2FNzS1hfYstCI%2FbKJpEuKpCmFwnyOqNbUUOWbEXq%2FQCswFwwwLuvTnphs%2BKaYKXbl0TRh%2F7qQ%3D%3D%7Ctkp%3ABk9SR7bT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -692,24 +692,20 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Donruss</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Holo Red Laser Signatures</t>
+          <t>Blue Shimmer</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alex Pereira</t>
+          <t>Dricus Du Plessis</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$990.00</t>
+          <t>$159.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -719,39 +715,39 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156665290984?_skw=PSA+10&amp;epid=16061284525&amp;hash=item2479faa0e8:g:MMAAAOSwDPxnc0uO&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk1OqJNaawL3vppP9%2Brkbj93348kevC4NUSTLA%2FTksTBG30aaUl0k7yQTn%2FtAnACsLP5EOADRi815kBQVjQHR9ve%2FUBIyKTPZnbSDGf54QvBo7BSf0TvjVACfRUViIkcTfcMGeS52v%2F5iZykm0N5uMKYAVneiyAF6SR408I4kRm989%2FyxaVkhXuumjowFEvnb9nSGjwh6kAfg2VxDEq%2FpZWW1%2B74KwPTz1wndKt%2Fb9gWw%3D%3D%7Ctkp%3ABk9SR8rf0YucZQ</t>
+          <t>https://www.ebay.com/itm/396182261825?_skw=PSA+10&amp;epid=4060317443&amp;hash=item5c3e4d9041:g:tn8AAOSwwI1npXn~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKngjwddFKxTGzV0Hh%2BOlYnr8rIr5q6PJN7z6RRNgwfCtjAUvJPzn3%2BR8PfAbj%2Fub37WT0RnWNsWBSJ4W%2BNpgBmcfSgChAjgFrypf99Q69D7TRn%2FtsUcBRwRQwfK%2FY2%2F6RnCKAMq8kPdqteROQtJAgtsMe%2BhFH7h8W46NxFRRBpb%2FTKLJfibm4KlJOk%2FzHupqCSVwv%2FmJdcPX81qPvQTc%2BaToXh2SAhliRY0%2FJDDLfeCug%3D%3D%7Ctkp%3ABk9SR7bT1bGcZQ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UFC</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Topps UFC Finest</t>
+          <t>Panini Select</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Blue Refractor</t>
+          <t>Silver Prizm</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Daniel Cormier</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$349.99</t>
+          <t>$174.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -761,7 +757,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/116138008322?_skw=PSA+10&amp;epid=12056064328&amp;hash=item1b0a5d5f02:g:gB4AAOSwoBVmFGz2&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkiF8ZnIfwlDIPn8PykmwrTtqY%2BGp52PzU35yH4sTdKzd4qAfeYQjcP4GLzSyj%2B4kVyRJhPMem0aEW3u7bx2Apw44liVEqJb1CdxPqNzoW5YDvPW4mOj%2BBA7rxrax4aGmAdGCjEMVBoPJviE0Q1WJNCrAWPak5xSIpDgP2fD9JaJGAjj7Ni%2BtdBh9b01rTzOdQBHKXpeXNk3I84p1sKIt6X8f7YHP4%2BHuWH4BTfO%2Fd2Qg%3D%3D%7Ctkp%3ABk9SR8rf0YucZQ</t>
+          <t>https://www.ebay.com/itm/396156610950?_skw=PSA+10&amp;epid=19056582784&amp;hash=item5c3cc62986:g:huMAAOSwjflnmFFK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmcBUVIF0u%2BsE7aby%2BajM3vzREMhIq4GfltKquhSGElnm%2Bx8J93Gqc5y%2B0cBQWG0nFzhbVLctgh3HyspAcreYofQeW3PnCplWq2cdQkx6pouNJTU7jmrbaW6PQBN0M6e9QftsMxR0Fvi8J%2F4YCDgx%2B3IFpZbU9aLNxUhxJtDmDfPl6A7sm2ezMyh47e4rxb9EKrr8Y%2FZvXWP5vf15vKpu3k4Sfz1OtdHyBz7irJqkyzOA%3D%3D%7Ctkp%3ABk9SR7bT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -773,27 +769,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Panini Select UFC</t>
+          <t>Donruss</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Signatures</t>
+          <t>Holo Red Laser Signatures</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Don Frye</t>
+          <t>Alex Pereira</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$990.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -803,39 +799,39 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205269274243?_skw=PSA+10&amp;epid=27056065429&amp;hash=item2fcb008e83:g:mXgAAOSwVqlnpCP-&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk7JJf88JvTYqqb4dEJ3CjG%2FJiu9NYeVQlsLUuvjw5MarBgP%2Fq3nvAT3yuv4Q8jsISgvDYQbqusptM3%2BMHHnsjlCXo8QQDfOYMIT%2BKA5ByQ1wT11VyiOCLgHdnCxwjKvqDKO2x2cyzbiNIgq%2FNaXfLOarOlgCj5PfoLWJDiBNuAvhpWCNAfbcDUUE5BfDWLOWFyp0pFAZH2gOreYb0D3zLTgeePmv8QTpmEa7WyiVWxwJAOj4xq7EbAUooEY%2BPgEqW4PKehSh1GmL6mI66%2BcyKw%7Ctkp%3ABk9SR8rf0YucZQ</t>
+          <t>https://www.ebay.com/itm/156665290984?_skw=PSA+10&amp;epid=16061284525&amp;hash=item2479faa0e8:g:MMAAAOSwDPxnc0uO&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkegrcB2apwPF0Yvk676hJWkwtd0yOzGQhbopatB0q6gg3uoY22%2Brbrp6%2B2E661qIfhtuvPqxTCqLIZtXE8Q1%2Fj0bWXEEvv%2FqRiMgdseun1CM1q%2BkpOFoiHWn1kkiQ2SHp39RnezTPOwCShxd4n2geYRU%2FwunBoWbM77rp7PLC5%2BsfPrffjWAy7HtBItbBfc50weqjjvNr5IHF%2BjpoaiaeqhUmyi3bT8xWXtrWSkTxyM6tXM7QvMrC5z0GJHxnR1AlKyhWV%2BuPajNt1gY7GDIbJ%7Ctkp%3ABk9SR7bT1bGcZQ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mixed Martial Arts (MMA)</t>
+          <t>UFC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Panini Donruss Optic UFC</t>
+          <t>Topps UFC Finest</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Blue Refractor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Forrest Griffin</t>
+          <t>Daniel Cormier</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$190.00</t>
+          <t>$349.99</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -845,39 +841,35 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/205269394611?_skw=PSA+10&amp;epid=14064150947&amp;hash=item2fcb0264b3:g:6aoAAOSwCaRnpDsG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkWiTc9bFcHE55te7ZK4P7CVUSQ5dn3d6QXAbGJK2c72s%2F12v6LPhXIt28rHKgRpabnfgSbXqb9r61temIb5ojZ6CrvVjxMfuMQueg3mJa76b8wBcLVL9HGtHK1dh0mnAN3rF7jraAZfMUYax1JfZ4C%2BejCfU%2FF3YSRDue9HtxWlD0w%2Boj%2BHHhKeOWqiXO0M5QTBD%2B5t4oUeI0jn9pnqm2pGKt%2FrV0r7HWO6f9u1lX0DQ%3D%3D%7Ctkp%3ABk9SR8rf0YucZQ</t>
+          <t>https://www.ebay.com/itm/116138008322?_skw=PSA+10&amp;epid=12056064328&amp;hash=item1b0a5d5f02:g:gB4AAOSwoBVmFGz2&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkiF8ZnIfwlDIPn8PykmwrTtqY%2BGp52PzU35yH4sTdKzTEjHQKzdVm2YR8yRYJpoo9rNJISFS7DdEwOG%2BCpEyg1oqCrfBdvBZywiHwHBWnh5dP7Vm1MTxaZ5gXIK2WgSmaOmT1TTCsphlVmWn2Do27FP1WwU7yAVOpHa532vaOtE7B7rgghKyGGiPeS4wIAJUblkIDat99I4GuRfZ6Vm%2BHX503OYGqjW32OJlNzHp%2FC3g%3D%3D%7Ctkp%3ABk9SR7bT1bGcZQ</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MMA</t>
+          <t>Mixed Martial Arts (MMA)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Panini Select</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
+          <t>Panini Select UFC</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bryan Battle</t>
+          <t>Max Holloway</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$499.99</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -887,35 +879,39 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/204744002982?_skw=PSA+10&amp;epid=12062015390&amp;hash=item2fabb18da6:g:hXcAAOSwjC1mHIkC&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKluVmSpNqMSxnfz8v7b2STbIzK4bmWABVg4qFHPHSOLP%2FOqfnHEBicFNMx7%2FeIsuKh3257e40wgYnl6lYNtRiMQYvVQtEfrnFBb6QEFX%2FrZGh0%2FcR3rVKwhS23FzN2NVyQY0H1qYB0d%2BUYNcF9RvuqabpYhrme6cXFOvXp5ikjRsvsNU9W3kQHrOUfklSLvjq1QUSI%2B7t%2F95Z%2Fpu%2BODBDiKblkjth3SHv3loi%2Bl%2BrNkRg%3D%3D%7Ctkp%3ABk9SR8rf0YucZQ</t>
+          <t>https://www.ebay.com/itm/375955345863?_skw=PSA+10&amp;hash=item5788af51c7:g:vhUAAOSwzkBnmK6k&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl9h5DBC%2FsH1zsxn7O3tYCVP2Mc3CQzTySUqxo9u3mj35ki6MOxO5QwVMpPSZhNd9UHKbScAfKWPcJRJ%2BU7whjDJFEwPqpcN5S6NuuESY3iEzQyf9MPDlfoqx11fub4rvs5iYkJwHFQIUhBClFZLDjt8ut6%2FU%2F46MoWZ6CBbOkwRYyRJgXjmK4dg0HNRRYjzXUBvMD142Y9p8sgj%2Fko3sX4hIIC9Y%2FJdpIdNTW38u9DgEjECqKNbAQCihVgVoXkd9mKrP74xf4Y3K7ZUK%2BOBQgw%7Ctkp%3ABk9SR7bT1bGcZQ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mixed Martial Arts (MMA), Boxing</t>
+          <t>Mixed Martial Arts (MMA)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Leaf Metal</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Panini Select UFC</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Gold Prizm</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Conor McGregor</t>
+          <t>Don Frye</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$330.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -925,7 +921,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396156130956?_skw=PSA+10&amp;hash=item5c3cbed68c:g:vD0AAOSwfi1nmBKa&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkXYvfifWvVDMd%2B3UeyOFfhSRbjjTUZRTAw4XDilrw2qdXVSVT%2F3axxf9%2Fw8Ps8cPOfWoqt4ZghJvwUOaBGggGBFBvg3IZ94WXlvIT2mDYGEHwwus0av7qDsVohRhBSlYIPMStgpUZfcbWhj2owBtWHJz47PqqmrUCH4tjQOs8WAOmbDi%2FwXAfvoquY7dLEeYdVo795tccR9LB9bP%2BarNkTSqwSWc5XyiLs%2BIv0CLxmAA%3D%3D%7Ctkp%3ABk9SR8rf0YucZQ</t>
+          <t>https://www.ebay.com/itm/205269274243?_skw=PSA+10&amp;epid=27056065429&amp;hash=item2fcb008e83:g:mXgAAOSwVqlnpCP-&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmXlDxMHbqA7%2Ff9Es8jd9NoZiFdmZv5AKQGRrPpnbLY49ntzn4GKTrMkzweeDVcHZ8kVT%2F6OAj0RAFf77TY3Pawsg0eanv2Jq7QaId95WNLSXLGVltkoyo%2BlOCYmoCGEfwT7EG1yFGBN6c%2B%2F6SSZicgmUaBC5xWxqbv35siO%2B3d1RjT5prKuZXOxp9U8uwGwMvQjyRp07mztM18zKUFsN5wAJgXemknVNm2Z2TrztDdLA%3D%3D%7Ctkp%3ABk9SR7bT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -937,27 +933,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Leaf Metal Happy Holidays</t>
+          <t>Panini Donruss Optic UFC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dreidel Prismatic</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Max Holloway</t>
+          <t>Forrest Griffin</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$205.50</t>
+          <t>$190.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -967,7 +963,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396156119409?_skw=PSA+10&amp;epid=14074109508&amp;hash=item5c3cbea971:g:ELoAAOSwlYpnmA~Y&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnJNq3V0N4aStBDTVH0xaS4mDoOh1N%2FlGyH4N9Rd7YM%2FVtoRx6wAjr5PfBuUFQzpblK%2FiuLPx7tqm872vL2naKrLEf30HLYqnyTw1UnzKGqXqzk--PtqsQUtBGhzkSxD267l3nu1ZTeshEXNYdauZf5vo17aXckZ4nZBzo%2BvemRLFO4d59vu%2BwwHcTCdKtaf9qvnJ4at5HBaFmEuyJxm6%2BcDHt6wvPhFckDXZ0r0KLpVA%3D%3D%7Ctkp%3ABk9SR8zf0YucZQ</t>
+          <t>https://www.ebay.com/itm/205269394611?_skw=PSA+10&amp;epid=14064150947&amp;hash=item2fcb0264b3:g:6aoAAOSwCaRnpDsG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkWiTc9bFcHE55te7ZK4P7CVUSQ5dn3d6QXAbGJK2c72tOXaDR6nulGgnCwtm0mvVFhwiBgqxf2eJWxGULzEMtx1szz98RNyy2w83eGpkaXfFErkuba5uChHJKz6PtQyIQ5PsixDdNeghXHCxXUQPyenyG%2FuC67D6SwOJIb6cA7Gqa1eABcOlkp93BESJDm%2FHY0xJB11O%2FbeA67WQgDLvXkYT7kInfbMhEn5S1nmla7Qg%3D%3D%7Ctkp%3ABk9SR7bT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -982,20 +978,24 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Panini Select UFC</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Green Pulsar</t>
+          <t>Green Prizm</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zhang Weili</t>
+          <t>Bryan Battle</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$225.00</t>
+          <t>$499.99</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1005,39 +1005,35 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167003710798?_skw=PSA+10&amp;epid=8060327729&amp;hash=item26e232654e:g:rUUAAOSw8O9m~usb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkY7AOVimwKtI2WRw04j51TqTiGTJ8K1EY3MiHT5TZuLp6h5QkTkdDhUaYtTIKkBPsJ5uzKInBw%2Bc3cgDPLOnYPh9ib1gL30X2lHGVk%2BIcLT5frnzN2eh%2B3DK4D9dt5RilIhiaYexcE3VB2Ovtly19J%2BR52aNqYzGq62w4yrIw4VdWlMFLxTijHAwCY%2FusO3QrmPlQL3cJLzP9mVpG7N0OrIDUC8TUWj7OuxlQgk%2FwF7WPQwiD0UNXYROEgtIp9Wwlq3TD6AXYssTnBEIiuNy1Z%7Ctkp%3ABk9SR8zf0YucZQ</t>
+          <t>https://www.ebay.com/itm/204744002982?_skw=PSA+10&amp;epid=12062015390&amp;hash=item2fabb18da6:g:hXcAAOSwjC1mHIkC&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmPmyzXxBDHYjfGL9tQ4CLhV2I%2B%2FYx6uCS8MrHBy4MmxUECA0V4XX3L%2Bp36XVJVmfvw5jrDL0N9DUkPeRsqiUKFt6PE4bpKyV%2BwtwYNzDIH%2BobXd8ngtx5bo2igJrIldDTDdbafnxhnHYB8duurBm8NdTNAqyStsn9S1m5i1Kh5yBk0jfpgkL4hEoo5QiyifOXTBTt%2BN3DirDL9o30lCabCVj231r59lKL0AvuxrFJiZaPkKTUIc9wT4CWngUJXnJB4Lu%2FzfBsZvD86WZaGFr41%7Ctkp%3ABk9SR7jT1bGcZQ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mixed Martial Arts</t>
+          <t>Mixed Martial Arts (MMA), Boxing</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Panini Select UFC</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Tie-Dye Prizm</t>
-        </is>
-      </c>
+          <t>Leaf Metal</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Paddy Pimblett</t>
+          <t>Conor McGregor</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$299.99</t>
+          <t>$330.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1047,7 +1043,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326423662640?_skw=PSA+10&amp;epid=21056077051&amp;hash=item4c005dd030:g:AuoAAOSwMUdnm6DD&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnvbbaJ8d75kaLKtJJvFA5nomdIfiue%2FVmKOtkecDzAq6BRdT8wIUbq1RQ0S77SBCuiSAAJr0hHr1PbpfpYLc30YVL1jlwdmE7xrufSC0m2Vkg1uG37W101fZT9eJKwzlmq%2BcWFyMEsXO8oaPEGapY0g0EO7oQPb%2F9xHLPSGiicZPInfsDQV1uGqz8bsCBfygs%2BWw7SIa0C4Kmrt0DOixS%2Fpxf4fkf70S6Cg%2FsCHs7%2Fg74gR1LLniPHFP%2FNdMpI3ASfZn44okZ9YLTTpb4bqTOF%7Ctkp%3ABk9SR8zf0YucZQ</t>
+          <t>https://www.ebay.com/itm/396156130956?_skw=PSA+10&amp;hash=item5c3cbed68c:g:vD0AAOSwfi1nmBKa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkFqCgpUfM7VeT7F7W9JID95q7viZgysQ8QcXYJVmLCJmguyOMtfmu%2BtP12Qv3Kh5oscholwvvEm5o3FjfmSfkcKdFIdhQpCDMA%2FY4OT%2FhD6io%2FBYPvOIOklDSPGqBIjzp9kYRe3AGGvwZqVp%2Bsm98qvhhnVnrYMy%2BJiAf7%2Bb5VwuhdNKy3CbNezaD92Gc0p4hxmJtsqS3UTmLAT7a%2FGQJ5DDJDwyAQ4y6iU%2BuiZ%2FFsE3cJgfIwUYpkLYrWMJvvv9IPsi1DflpPn0P83t%2FfSYD5%7Ctkp%3ABk9SR7jT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -1064,22 +1060,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Topps Chrome UFC</t>
+          <t>Leaf Metal Happy Holidays</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>Dreidel Prismatic</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Alex Pereira</t>
+          <t>Max Holloway</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$195.99</t>
+          <t>$205.50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1089,7 +1085,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316188701335?_skw=PSA+10&amp;epid=27066271674&amp;hash=item499e50b297:g:V08AAOSw2r9npFoG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl6QFjHIIz4xSUCFFZG%2FNk0Ffw8Zp9yiSsaYEJhSUqdhRwSdXqLVoLnYLVk1LeMGepkV21BSl3FD6YIYyn8qYFcVOWmGK2ctmUhzYEh23NsKyi%2Fr4q1vLpVjYVm5I5OwrSslT1eBtWwwLJBqfoEY%2Fdm0foiFA2td6nR79hNy8bO9mMTiPWfIcGxEjLaMvj2RDSXjt9eoMOTqug8li%2FK%2BhYyE%2Bw3Yh7EblP7hn8sQXPR4w%3D%3D%7Ctkp%3ABk9SR8zf0YucZQ</t>
+          <t>https://www.ebay.com/itm/396156119409?_skw=PSA+10&amp;epid=14074109508&amp;hash=item5c3cbea971:g:ELoAAOSwlYpnmA~Y&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnJNq3V0N4aStBDTVH0xaS4mDoOh1N%2FlGyH4N9Rd7YM%2FRCjt0w9wbYIP16JwLeXEuouTZ%2Fv2wr0cdr6MEcZ05elelvEI8bKKyKFzwUZD0O2ev89Ei2g%2FFLNfN3HEN5ByRMk2u5rEgQ6cq4LwATmacmAxMqnnYiBY5BJAeyygBZEVQwNuCT1mPfQMaiZl9EKvgwzR0HOcDWme2R7qAeyETsfnBx%2B0RUL2KBJ3bJEYwcbcg%3D%3D%7Ctkp%3ABk9SR7jT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1097,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1111,17 +1107,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Prizm</t>
+          <t>Green Pulsar Prizm</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Umar Nurmagomedov</t>
+          <t>Zhang Weili</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$249.99</t>
+          <t>$225.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1131,7 +1127,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/315891431374?_skw=PSA+10&amp;epid=5056080197&amp;hash=item498c98b7ce:g:DgkAAOSw3pdmHEFa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmidmYGsC038h81HSBK4yFKFZT%2BtA0I2RX6tn7QRC8L8stMbW5ThPSCbwihfMUhZT3z68FVzzH2uBKlWtvjdrNOlzj1rVgCeLJNVi2PBmsh4%2F%2By69cBACLLAWHTotIZS02TWotCAFS02y%2BJfCi89axabKUfsiJ6E4h%2FR%2BwqoECn8RdfNuPevp8a08iFwdnBcxEXIJsFxNxIL%2BYoq9MvwW3gcRYZsmd0ltxp8WmQEtrbyDRbmNzpsNUEzbhJhNxZg%2FkVhdcJrTKZzosO%2BQz%2FLNsk%7Ctkp%3ABk9SR8zf0YucZQ</t>
+          <t>https://www.ebay.com/itm/167003710798?_skw=PSA+10&amp;epid=8060327729&amp;hash=item26e232654e:g:rUUAAOSw8O9m~usb&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkY7AOVimwKtI2WRw04j51TqTiGTJ8K1EY3MiHT5TZuLp6h5QkTkdDhUaYtTIKkBPsJ5uzKInBw%2Bc3cgDPLOnYPh9ib1gL30X2lHGVk%2BIcLT5frnzN2eh%2B3DK4D9dt5Rinf1CjsKeDbpbJvzqBe1XUZmTsDRsQwijIAFSQYw6eZRHHimlQxGqtFo3X3wtqqYFO2iEKIMMKisuLSFRiGQSPokgXPlF1Qe4eNBqXVl6e7C%2FJC%2BuK2EQWab33GlRToOWnPkAbpjnKbDnFXX4ootPni%7Ctkp%3ABk9SR7jT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -1143,23 +1139,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Topps Chrome UFC</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Panini Select UFC</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tie-Dye Prizm</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sean Strickland</t>
+          <t>Paddy Pimblett</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$275.00</t>
+          <t>$299.99</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405257403656?_skw=PSA+10&amp;hash=item5e5b393d08:g:nwMAAOSw8wdm-YS0&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmyYTNBp8Em9PJDb8vAakr9vICgJqmL6uhxlggHLjctH7UneKVD5Q%2FaDUGdNa7F1cyqEdi5PZZmHxXs%2F2Bnp2BDzSXJkNIFK5bqqzFgWC9246M5n1rqR1MLaNKRex2E6FCuETGpX0zFISkKl7cvxSWuI8U5FBTbgb4yMJ7ToQJkU6E9Cb70qmI7tOO6LvtvsOYo%2B71yJEuuULnq36k8Jx9O6n%2FCS9QvPRyz0if9koNmJg%3D%3D%7Ctkp%3ABk9SR8zf0YucZQ</t>
+          <t>https://www.ebay.com/itm/326423662640?_skw=PSA+10&amp;epid=21056077051&amp;hash=item4c005dd030:g:AuoAAOSwMUdnm6DD&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkYrX9HZSZ3FenAZnYg%2F3VdzmC8IPECdOmGILO90Y%2BVC%2F4dIxRDKl2hE%2F0g%2BlQLTVXw5YhgfDfktOw4Dw0rFeQ2nUMnX64Sw%2B4p9ig4jAnHkHMeyIqSicBgZIfNb1yOUkQ0sls%2FclBCENEV43oSX6St9%2F%2BXhNY2XQwaOmfgXKEotH%2FY7zXmA41lkmaitOf64c%2Fabb1cWdIj4P3ytOHAv9j39ixsO6vO5WjYHMge7ws0Yg%3D%3D%7Ctkp%3ABk9SR7jT1bGcZQ</t>
         </is>
       </c>
     </row>
@@ -1181,37 +1181,243 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Topps Chrome UFC</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Blue Wave Refractor</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Alex Pereira</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>$195.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/316188701335?_skw=PSA+10&amp;epid=27066271674&amp;hash=item499e50b297:g:V08AAOSw2r9npFoG&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl6QFjHIIz4xSUCFFZG%2FNk0Ffw8Zp9yiSsaYEJhSUqdhW6PAMN8s2ANGrXY--Mu8aQwT6ZL3wuKtTP5UN2ttIJTD72cM4yZf2TIbhMvmRsJHW2Q%2Fm3P%2BeRweBAP%2BfRKpHV%2Bt5iGCGwDDqcqoYGWGCdpeBSaQAfsWLHLcjlDYO4xkCRr4ySZYHc0xaF2rs8u--gi6114iBlRCFs1%2BrVKOvtNKp5wKSQB7PC145zOsPM1oQ%3D%3D%7Ctkp%3ABk9SR7jT1bGcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mixed Martial Arts (MMA)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Panini Select UFC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Light Blue Prizm</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ilia Topuria</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>$160.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/176585167699?_skw=PSA+10&amp;epid=8056073920&amp;hash=item291d4bd353:g:odIAAOSwW5Zm7I5e&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnjKmXNWPLb%2BeBBRnUpA29WceKojpMtZVPXeq8EoxL9siTG%2FHPUX0dLjy0Slie0ygj8zV7hfxeCN5JJjHSkdyK6ZmiP%2F3TN%2B%2BVZVPJlmlCDbqS%2FrcJESFR1hFS6lhmhNknaeTgKTOeSEgsnfwS0PhE2wq8SUOawbkDsx2LTQNM0tORG2sPzUTqq3coTbsDsVvObLiEaljVyJURrAUlU9Re1kvOD%2FJ2A%2BK6wZ0Da1J4b8g%3D%3D%7Ctkp%3ABk9SR7rT1bGcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mixed Martial Arts (MMA)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Panini Prizm UFC</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Prizm</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Umar Nurmagomedov</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>$249.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/315891431374?_skw=PSA+10&amp;epid=5056080197&amp;hash=item498c98b7ce:g:DgkAAOSw3pdmHEFa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmidmYGsC038h81HSBK4yFKFZT%2BtA0I2RX6tn7QRC8L8stMbW5ThPSCbwihfMUhZT3z68FVzzH2uBKlWtvjdrNOlzj1rVgCeLJNVi2PBmsh4%2F%2By69cBACLLAWHTotIZS00cp5R3LQxfj%2BYz6QvyHR448T50EbbJhvyZUgfX0B1eaokfKOwRIQOyuxNLwA339TlWpoKT8%2FF%2BGDkpJGGc4ZOTY0t4Rte6TMX74GC5FZ0JJ4xdbQo%2FzZwFulTREpEy21ZBFoWdPq9xd4heoh1iwlep%7Ctkp%3ABk9SR7rT1bGcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mixed Martial Arts (MMA)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Topps Chrome UFC</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sean Strickland</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>$275.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/405257403656?_skw=PSA+10&amp;hash=item5e5b393d08:g:nwMAAOSw8wdm-YS0&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkEJMM39K5DeVj6dxC1HcZboEtavMCNV%2B8l%2FogbiBaelFcLDvyRBrClx2A6WVMc4444uWTzoHtO%2BLLeMZIdfHGeJuC%2FR3K%2B7shgysnL3ZTxO2JK4wml%2BoLSadlSPkRs%2BdbXttURBFxYGoErxWri1jEWdYGQGj3R4--XBSrdoGkZ2%2Bi724ETU%2FN1xlyg2%2BhWq91l8qhldvBrqHPJ1hDka6diYKGLVRsISyPUGQWmNI8ameZ8CK3NGCUcSXl8K4i1HQyBNChNtrSx3eaeK1IZsOTc%7Ctkp%3ABk9SR7rT1bGcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mixed Martial Arts (MMA)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Topps Midnight UFC</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Georges St-Pierre</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/395713318818?_skw=PSA+10&amp;hash=item5c225a0fa2:g:FpYAAOSwfy1m76Fh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnYNdiV7fOM2PZ9WdX9lb75y2GDt2EvQGiSWfQjfbq72anW7xFWhXaW91%2FQjGBqyjzeKKT%2BtxKuZI3UTzou61GtY83YsgYjqq%2FWf%2Fx96MHjbCNdFSxsY0s6dZSkslgk31s3Z55NQYOIDI5sPVqFyHP32Asu0NLVZcwpcQjmvGH4VC0fRBfYMrQb8UwM0baIpTsaRZ3eCi%2BM3g%2FDIc23%2Bu6Z4ZsJ53sJaiv1h56KLNuZFQ%3D%3D%7Ctkp%3ABk9SR7rT1bGcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mixed Martial Arts (MMA)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Donruss UFC</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Holo Gold Laser</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Joanna Jedrzejczyk</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>$150.00</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/205269351313?_skw=PSA+10&amp;epid=20056074229&amp;hash=item2fcb01bb91:g:gYEAAOSwwc1npDIF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmGikHNrXuhl8U6%2FhlxutB%2BV3JkjUThuk5Q3QN%2B%2BYbz9xmz5YIcGkj%2FFVIjLAbWKVeTs3F%2FG5d6Uq43tGLPo%2BwCGDKDDd0aLvMOA3s616wNegqIfjF7WqD7agJFCf4q1C6W9A1W8XcRjB9FJcgxchi7TqJXQIhQWKmsAwSa%2BYUzrAAyxBY8ZoT7W%2Fm1OpCkfhawSAJMxy98CZGH9YTQqDsTzkBXY5wZgSikqVupE%2BmK9A%3D%3D%7Ctkp%3ABk9SR8zf0YucZQ</t>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/205269351313?_skw=PSA+10&amp;epid=20056074229&amp;hash=item2fcb01bb91:g:gYEAAOSwwc1npDIF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnl8O85xVVxqvf%2FJhiWfkt1GMVFwS2n9I%2FbL53wWPr%2FxRsazjNooYhbISPioivOHJeWbrYcmfb30TDLbNm4Jb8tb6yrzqSkkLgTCdyfCZ2duu5yCFhnYYkjerz5qffXxD%2FxtFQqfTwgNMaasjtDOQk7%2FdWp3d2bO6H54W9s5D9bTAfuwQstfroEm8D7NnVqkerrtuoiJDHaC1VMd9lmw4Uh8PAaW%2F9RHagNu%2BBBU51uy%2B99CSqCrb2dQnY9OJZoM9XllTsb67kc%2BR3xlsXcNUZK%7Ctkp%3ABk9SR7rT1bGcZQ</t>
         </is>
       </c>
     </row>
